--- a/products.xlsx
+++ b/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="18195" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="18195" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="42">
   <si>
     <t>V5-571P-6642</t>
   </si>
@@ -126,14 +126,29 @@
     <t>BRAND</t>
   </si>
   <si>
-    <t>*</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>wordcloud</t>
+  </si>
+  <si>
+    <t>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</t>
+  </si>
+  <si>
+    <t>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_bad.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +160,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,15 +205,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,27 +581,27 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B3+C$1,1))</f>
+        <f t="shared" ref="C3:H12" ca="1" si="0">INDIRECT(ADDRESS($B3+C$1,1))</f>
         <v>V5-571P-6642</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B3+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>ACER</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B3+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B3+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>500</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B3+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B3+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -587,27 +613,27 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B4+C$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>MD101LL/A</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B4+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>APPLE</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B4+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B4+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>500</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B4+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BUY IT!</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B4+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -619,27 +645,27 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B5+C$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>S400CA-DB51T</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B5+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>ASUS</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B5+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B5+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>500</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B5+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>IT'S A GOOD OPTION</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B5+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -651,27 +677,27 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B6+C$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>XE303C12-A01US</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B6+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>SAMSUNG</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B6+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B6+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B6+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>IT'S A GOOD OPTION</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B6+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -683,27 +709,27 @@
         <v>30</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B7+C$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>S400CA-DH51T</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B7+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>ASUS</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B7+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B7+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>500</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B7+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B7+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -715,27 +741,27 @@
         <v>37</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B8+C$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Y500 (59359560)</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B8+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>LENOVO</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B8+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B8+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1024</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B8+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B8+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -747,27 +773,27 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B9+C$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>G75VW-NH71</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B9+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>ASUS</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B9+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B9+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>500</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B9+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B9+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -779,27 +805,27 @@
         <v>51</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B10+C$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AVIU-145A2</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B10+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AVATAR</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B10+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B10+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>500</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B10+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B10+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -811,27 +837,27 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B11+C$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>13Z (I13Z-8864SLV)</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B11+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>DELL</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B11+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B11+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>500</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B11+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>NEVER MIND!</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B11+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -843,27 +869,27 @@
         <v>65</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B12+C$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>V5-552G-8632</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B12+D$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>ACER</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B12+E$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B12+F$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>500</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B12+G$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B12+H$1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -875,27 +901,27 @@
         <v>72</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B13+C$1,1))</f>
+        <f t="shared" ref="C13:H20" ca="1" si="1">INDIRECT(ADDRESS($B13+C$1,1))</f>
         <v>G750JW-DB71</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B13+D$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>ASUS</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B13+E$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B13+F$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1024</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B13+G$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B13+H$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -907,27 +933,27 @@
         <v>79</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B14+C$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>F75VD-NS51</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B14+D$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>ASUS</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B14+E$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B14+F$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>750</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B14+G$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B14+H$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -939,27 +965,27 @@
         <v>86</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B15+C$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>UX31A-DH51</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B15+D$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>ASUS</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B15+E$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B15+F$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>128</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B15+G$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B15+H$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -971,27 +997,27 @@
         <v>93</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B16+C$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>UX32VD-DH71</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B16+D$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>ASUS</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B16+E$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B16+F$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>520</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B16+G$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B16+H$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1003,27 +1029,27 @@
         <v>100</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B17+C$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>U310 (59365302)</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B17+D$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>LENOVO</v>
       </c>
       <c r="E17" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B17+E$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="F17" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B17+F$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>500</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B17+G$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>NEVER MIND!</v>
       </c>
       <c r="H17" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B17+H$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1035,27 +1061,27 @@
         <v>107</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B18+C$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>S500CA-DS51T</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B18+D$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>ASUS</v>
       </c>
       <c r="E18" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B18+E$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
       <c r="F18" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B18+F$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B18+G$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H18" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B18+H$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1067,27 +1093,27 @@
         <v>114</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B19+C$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>GAMING FX6164</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B19+D$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>AVATAR</v>
       </c>
       <c r="E19" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B19+E$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="F19" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B19+F$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1024</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B19+G$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>THINK IT TWICE!</v>
       </c>
       <c r="H19" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B19+H$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1099,27 +1125,27 @@
         <v>121</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B20+C$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>NX.M49AA.004</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B20+D$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>ACER</v>
       </c>
       <c r="E20" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B20+E$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
       <c r="F20" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B20+F$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>500</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B20+G$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>IT'S A GOOD OPTION</v>
       </c>
       <c r="H20" s="2">
-        <f ca="1">INDIRECT(ADDRESS($B20+H$1,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1670,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H20"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,9 +1709,13 @@
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1704,8 +1734,20 @@
       <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1724,8 +1766,22 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0.874</v>
+      </c>
+      <c r="I3">
+        <f>1-H3</f>
+        <v>0.126</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(H3&gt;0.55,$B$23,$B$22)</f>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1744,8 +1800,22 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0.75344999999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I20" si="0">1-H4</f>
+        <v>0.24655000000000005</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J20" si="1">IF(H4&gt;0.55,$B$23,$B$22)</f>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1764,11 +1834,22 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.79234000000000004</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.20765999999999996</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -1787,8 +1868,22 @@
       <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.78134000000000003</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.21865999999999997</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1807,8 +1902,22 @@
       <c r="G7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0.58342000000000005</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.41657999999999995</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1827,8 +1936,22 @@
       <c r="G8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0.60024500000000003</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.39975499999999997</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1847,11 +1970,22 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0.64222000000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.35777999999999999</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1870,8 +2004,22 @@
       <c r="G10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0.6</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -1890,8 +2038,22 @@
       <c r="G11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.39070000000000005</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1910,8 +2072,22 @@
       <c r="G12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.54899999999999993</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_bad.png</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -1930,8 +2106,23 @@
       <c r="G13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f ca="1">RANDBETWEEN(6000,7000)/10000</f>
+        <v>0.61339999999999995</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38660000000000005</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -1950,11 +2141,23 @@
       <c r="G14">
         <v>4</v>
       </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" ref="H14:H20" ca="1" si="2">RANDBETWEEN(6000,7000)/10000</f>
+        <v>0.62960000000000005</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37039999999999995</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1973,11 +2176,23 @@
       <c r="G15">
         <v>4</v>
       </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.61160000000000003</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38839999999999997</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -1996,11 +2211,23 @@
       <c r="G16">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38070000000000004</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -2019,8 +2246,23 @@
       <c r="G17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35529999999999995</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -2039,8 +2281,22 @@
       <c r="G18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0.54323999999999995</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.45676000000000005</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_bad.png</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -2059,11 +2315,23 @@
       <c r="G19">
         <v>4</v>
       </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32909999999999995</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -2082,26 +2350,660 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" t="s">
-        <v>36</v>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64990000000000003</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35009999999999997</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>https://raw.github.com/simon0191/MinerPCAdviser/c006bf19e988253eabdf527592093b60471cb429/MpcaAndroidApp/res/drawable-hdpi/cloud_perfect.png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:G20">
-    <sortCondition ref="G3:G20"/>
+  <sortState ref="K3:K20">
+    <sortCondition ref="K3"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0.874</v>
+      </c>
+      <c r="I2">
+        <v>0.126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.75344999999999995</v>
+      </c>
+      <c r="I3">
+        <v>0.24655000000000005</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0.79234000000000004</v>
+      </c>
+      <c r="I4">
+        <v>0.20765999999999996</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0.78134000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.21865999999999997</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0.58342000000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.41657999999999995</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0.60024500000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.39975499999999997</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1024</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0.64222000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.35777999999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="I10">
+        <v>0.39070000000000005</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.54899999999999993</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="I12">
+        <v>0.31100000000000005</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1024</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="I13">
+        <v>0.38460000000000005</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>750</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.36170000000000002</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0.7</v>
+      </c>
+      <c r="I15">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>520</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.39610000000000001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>0.54323999999999995</v>
+      </c>
+      <c r="I17">
+        <v>0.45676000000000005</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>0.622</v>
+      </c>
+      <c r="I18">
+        <v>0.378</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>1024</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="I19">
+        <v>0.35509999999999997</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>